--- a/Results/Tranpose.xlsx
+++ b/Results/Tranpose.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\University\2020\HPC\HPC-Assignment2\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05242462-5D23-43F2-B8B0-9C693D668F19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F4EA16-F04D-4832-96AE-F2EB98A74FB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{184051DE-5779-44C6-A2AC-286B4887D014}"/>
+    <workbookView xWindow="14175" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{184051DE-5779-44C6-A2AC-286B4887D014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$C$122</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="108">
   <si>
     <t>Threads = 256</t>
   </si>
@@ -56,21 +56,12 @@
     <t>CPU</t>
   </si>
   <si>
-    <t xml:space="preserve"> Run Time</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 6.626048 ms</t>
   </si>
   <si>
-    <t xml:space="preserve"> Speed Up</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.000000x</t>
   </si>
   <si>
-    <t xml:space="preserve"> Throughputs</t>
-  </si>
-  <si>
     <t>GPU(Global)</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t xml:space="preserve"> 33.597923x</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ratio of Throughputs</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 33.597923</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t xml:space="preserve"> 6.954160 GFLOPS/s</t>
   </si>
   <si>
-    <t xml:space="preserve"> Throughput Ratio</t>
-  </si>
-  <si>
     <t>GPU (Shared) tile size = 32, block size = 16</t>
   </si>
   <si>
@@ -357,6 +342,30 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>Run Time</t>
+  </si>
+  <si>
+    <t>Speed Up</t>
+  </si>
+  <si>
+    <t>Throughputs</t>
+  </si>
+  <si>
+    <t>Throughput Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3292346 GFLOPS/s</t>
+  </si>
+  <si>
+    <t>3.1300339 GFLOP/s</t>
+  </si>
+  <si>
+    <t>4.36531212 GFLOP/s</t>
+  </si>
+  <si>
+    <t>3.58835585 GFLOP/s</t>
   </si>
 </sst>
 </file>
@@ -427,16 +436,19 @@
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
+      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Column2"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FDBC4F-75CF-4548-8833-A8915CC299B1}" name="Results_of_Transpose" displayName="Results_of_Transpose" ref="A1:C122" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C122" xr:uid="{595C7476-CEA6-4876-A672-92BF9556F2A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FDBC4F-75CF-4548-8833-A8915CC299B1}" name="Results_of_Transpose" displayName="Results_of_Transpose" ref="A1:C1048576" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C1048576" xr:uid="{595C7476-CEA6-4876-A672-92BF9556F2A3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4843BC73-9EE8-4DAB-B0DE-F49DEE6DDBE7}" uniqueName="1" name="Kernel" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{726AAFC1-3C2C-4626-AFC5-7D207BCC51B3}" uniqueName="2" name="Metric" queryTableFieldId="2" dataDxfId="1"/>
@@ -745,34 +757,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71D3DE-5704-4107-B138-0683059E0ED2}">
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,9 +791,6 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,152 +799,143 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,184 +944,169 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
@@ -1133,327 +1116,306 @@
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
+      <c r="B35" t="s">
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
+      <c r="B37" t="s">
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1</v>
@@ -1463,327 +1425,306 @@
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>4</v>
+      <c r="B65" t="s">
+        <v>100</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
+      <c r="B66" t="s">
+        <v>101</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>8</v>
+      <c r="B67" t="s">
+        <v>102</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
       <c r="C70" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>100</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>100</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>103</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
       <c r="C87" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>1</v>
@@ -1793,308 +1734,293 @@
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>4</v>
+      <c r="B95" t="s">
+        <v>100</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>6</v>
+      <c r="B96" t="s">
+        <v>101</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>8</v>
+      <c r="B97" t="s">
+        <v>102</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C98" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
       <c r="C100" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>100</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>101</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>100</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>101</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>102</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>103</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C113" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>100</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>101</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>102</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C118" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B119" t="s">
+        <v>100</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B120" t="s">
+        <v>101</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B121" t="s">
+        <v>102</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B122" t="s">
+        <v>103</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Tranpose.xlsx
+++ b/Results/Tranpose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\University\2020\HPC\HPC-Assignment2\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F4EA16-F04D-4832-96AE-F2EB98A74FB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7E6AC4-4D6C-474B-9754-A6A5C8110807}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{184051DE-5779-44C6-A2AC-286B4887D014}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{184051DE-5779-44C6-A2AC-286B4887D014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t xml:space="preserve"> 223.012447</t>
   </si>
   <si>
-    <t>Kernel</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>3.58835585 GFLOP/s</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3FDBC4F-75CF-4548-8833-A8915CC299B1}" name="Results_of_Transpose" displayName="Results_of_Transpose" ref="A1:C1048576" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C1048576" xr:uid="{595C7476-CEA6-4876-A672-92BF9556F2A3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4843BC73-9EE8-4DAB-B0DE-F49DEE6DDBE7}" uniqueName="1" name="Kernel" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4843BC73-9EE8-4DAB-B0DE-F49DEE6DDBE7}" uniqueName="1" name="Type" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{726AAFC1-3C2C-4626-AFC5-7D207BCC51B3}" uniqueName="2" name="Metric" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{505FC46C-8BB2-4575-A6B3-9664E219AE35}" uniqueName="3" name="Values" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
@@ -755,10 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71D3DE-5704-4107-B138-0683059E0ED2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,13 +773,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -811,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -822,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>80</v>
@@ -841,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -852,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -863,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -893,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -904,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -915,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -926,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>81</v>
@@ -953,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -964,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -975,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -986,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>82</v>
@@ -1005,7 +1008,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
@@ -1016,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -1027,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>21</v>
@@ -1038,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>83</v>
@@ -1057,7 +1060,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
@@ -1068,7 +1071,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>24</v>
@@ -1079,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>25</v>
@@ -1090,7 +1093,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>84</v>
@@ -1117,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>27</v>
@@ -1128,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1139,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -1158,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>29</v>
@@ -1169,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>30</v>
@@ -1180,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>31</v>
@@ -1210,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -1221,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
@@ -1232,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>34</v>
@@ -1243,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>85</v>
@@ -1262,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>35</v>
@@ -1273,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>36</v>
@@ -1284,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>37</v>
@@ -1295,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>86</v>
@@ -1314,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>38</v>
@@ -1325,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>39</v>
@@ -1336,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>40</v>
@@ -1347,7 +1350,7 @@
         <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>87</v>
@@ -1366,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>41</v>
@@ -1377,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>42</v>
@@ -1388,7 +1391,7 @@
         <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>43</v>
@@ -1399,7 +1402,7 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>88</v>
@@ -1426,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>45</v>
@@ -1437,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -1448,7 +1451,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>46</v>
@@ -1467,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>47</v>
@@ -1478,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>48</v>
@@ -1489,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>49</v>
@@ -1519,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>50</v>
@@ -1530,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>51</v>
@@ -1541,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>52</v>
@@ -1552,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>89</v>
@@ -1571,7 +1574,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>53</v>
@@ -1582,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>54</v>
@@ -1593,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>55</v>
@@ -1604,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>90</v>
@@ -1623,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>56</v>
@@ -1634,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>57</v>
@@ -1645,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>58</v>
@@ -1656,7 +1659,7 @@
         <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>91</v>
@@ -1675,7 +1678,7 @@
         <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>59</v>
@@ -1686,7 +1689,7 @@
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>60</v>
@@ -1697,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>61</v>
@@ -1708,7 +1711,7 @@
         <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>92</v>
@@ -1735,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>63</v>
@@ -1746,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>5</v>
@@ -1757,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>64</v>
@@ -1776,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>65</v>
@@ -1787,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>66</v>
@@ -1798,10 +1801,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>67</v>
@@ -1828,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>68</v>
@@ -1839,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>69</v>
@@ -1850,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>70</v>
@@ -1861,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>93</v>
@@ -1880,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>71</v>
@@ -1891,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>72</v>
@@ -1902,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>73</v>
@@ -1913,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>94</v>
@@ -1932,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>74</v>
@@ -1943,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>75</v>
@@ -1954,7 +1957,7 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>76</v>
@@ -1965,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>95</v>
@@ -1984,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>77</v>
@@ -1995,7 +1998,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>78</v>
@@ -2006,7 +2009,7 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>79</v>
@@ -2017,7 +2020,7 @@
         <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>96</v>
@@ -2025,8 +2028,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
